--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/63.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/63.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2326562668384841</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.559218505362937</v>
+        <v>-1.558599128838705</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0128622113898688</v>
+        <v>0.007224074897369732</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1315808013145314</v>
+        <v>-0.1491925012627648</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2253759801148852</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.561168715054229</v>
+        <v>-1.568500496121247</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02345536007622243</v>
+        <v>0.01688068220654945</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0917360812779258</v>
+        <v>-0.1127035899927723</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2274169969059335</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.639228258327333</v>
+        <v>-1.638968545172319</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03672883504583067</v>
+        <v>-0.04214818288046894</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09859093455119031</v>
+        <v>-0.1197992681915958</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2369252694683193</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.782074428633174</v>
+        <v>-1.775369894185993</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09410970211284725</v>
+        <v>-0.08936088642388307</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1039614877930683</v>
+        <v>-0.1260103476442483</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2462647461084139</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.843098362956441</v>
+        <v>-1.814958836115388</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.125349259613302</v>
+        <v>-0.1132041280733459</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1028266200066105</v>
+        <v>-0.1236304307328416</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2465882393128246</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.664802134000666</v>
+        <v>-1.638176026544744</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1372803245527612</v>
+        <v>-0.1075376592366634</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1033413242592758</v>
+        <v>-0.1186234759079842</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2327901698052184</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.329702907190477</v>
+        <v>-1.324980062817015</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1473918233879968</v>
+        <v>-0.1205563713889414</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05821262203246376</v>
+        <v>-0.0788999553437187</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.204663060706793</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8101420185263792</v>
+        <v>-0.8302634919635266</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.09140238922421007</v>
+        <v>-0.053942308156375</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06840754388112831</v>
+        <v>-0.08273111788496458</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1649498059872816</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2662822096772017</v>
+        <v>-0.3053540863252486</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1036136295672608</v>
+        <v>-0.05110749971891246</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01067589883038214</v>
+        <v>-0.01314845458962507</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1165815909596253</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3166258655332033</v>
+        <v>0.2568084168664133</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1261771936711062</v>
+        <v>-0.08393209447451699</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08402361586387289</v>
+        <v>0.06174337520186166</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06207220752633587</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784395192944119</v>
+        <v>0.9009001893408973</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2143805031714328</v>
+        <v>-0.14640333937982</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1476218584600272</v>
+        <v>0.135319325007941</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.003790377740985073</v>
       </c>
       <c r="E13" t="n">
-        <v>1.67216483672087</v>
+        <v>1.568334665384271</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3766681706540189</v>
+        <v>-0.3016378271798577</v>
       </c>
       <c r="G13" t="n">
-        <v>0.253817780535942</v>
+        <v>0.2380413868831452</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.05690076576080368</v>
       </c>
       <c r="E14" t="n">
-        <v>2.339293953054711</v>
+        <v>2.226786214302381</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.618256495486855</v>
+        <v>-0.5401001500377907</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3636307985526058</v>
+        <v>0.3478355166703534</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1200120106103247</v>
       </c>
       <c r="E15" t="n">
-        <v>3.048007080554195</v>
+        <v>2.921743988700818</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9167180662200881</v>
+        <v>-0.8330463577699861</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5081131617350385</v>
+        <v>0.4877217440185881</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1854908739094422</v>
       </c>
       <c r="E16" t="n">
-        <v>3.726730421735537</v>
+        <v>3.595254178552412</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.153165644602756</v>
+        <v>-1.069306627877219</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6692077227236787</v>
+        <v>0.6493561935658344</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2535898499955033</v>
       </c>
       <c r="E17" t="n">
-        <v>4.392320147368745</v>
+        <v>4.250903973434607</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.449763576696369</v>
+        <v>-1.350748329851828</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8403161933620339</v>
+        <v>0.8209652022847632</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3236856515623872</v>
       </c>
       <c r="E18" t="n">
-        <v>5.064745838045764</v>
+        <v>4.900722027472383</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.660417703738283</v>
+        <v>-1.5666274133669</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9978204167349872</v>
+        <v>0.9790518127325978</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3946942126299788</v>
       </c>
       <c r="E19" t="n">
-        <v>5.545703120750401</v>
+        <v>5.38622822543758</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.894301991981913</v>
+        <v>-1.787877050123849</v>
       </c>
       <c r="G19" t="n">
-        <v>1.1638196213056</v>
+        <v>1.145416189739353</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4647957997970366</v>
       </c>
       <c r="E20" t="n">
-        <v>5.981314486589488</v>
+        <v>5.806091529968053</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.044474434287848</v>
+        <v>-1.938727894671064</v>
       </c>
       <c r="G20" t="n">
-        <v>1.291239617213134</v>
+        <v>1.272886554258768</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5316292498262093</v>
       </c>
       <c r="E21" t="n">
-        <v>6.271141775432826</v>
+        <v>6.104058071687637</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.241419641792793</v>
+        <v>-2.141341932041374</v>
       </c>
       <c r="G21" t="n">
-        <v>1.406317729190548</v>
+        <v>1.390366619415287</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5936604795262792</v>
       </c>
       <c r="E22" t="n">
-        <v>6.60011177178467</v>
+        <v>6.429554207838771</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.339176460349854</v>
+        <v>-2.245918975451031</v>
       </c>
       <c r="G22" t="n">
-        <v>1.500796652927501</v>
+        <v>1.488097466656847</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.649428642235867</v>
       </c>
       <c r="E23" t="n">
-        <v>6.724083091797434</v>
+        <v>6.554595860854018</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.428040070871566</v>
+        <v>-2.336987786761685</v>
       </c>
       <c r="G23" t="n">
-        <v>1.601275737554851</v>
+        <v>1.590511020784276</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6971903045764212</v>
       </c>
       <c r="E24" t="n">
-        <v>6.855153238047263</v>
+        <v>6.696300080287355</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.479852058287421</v>
+        <v>-2.396370806150996</v>
       </c>
       <c r="G24" t="n">
-        <v>1.605552347507425</v>
+        <v>1.593336385107011</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7352161440791212</v>
       </c>
       <c r="E25" t="n">
-        <v>6.934771847260016</v>
+        <v>6.773168878095196</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.489491351386266</v>
+        <v>-2.401634326092626</v>
       </c>
       <c r="G25" t="n">
-        <v>1.650747158537332</v>
+        <v>1.639157655747195</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7626772680446459</v>
       </c>
       <c r="E26" t="n">
-        <v>6.922192286442581</v>
+        <v>6.78020474356741</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.51665105132431</v>
+        <v>-2.416055489281983</v>
       </c>
       <c r="G26" t="n">
-        <v>1.671322736490975</v>
+        <v>1.676032201701906</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.779959203013977</v>
       </c>
       <c r="E27" t="n">
-        <v>6.852438055063019</v>
+        <v>6.722213157081328</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.416672504777533</v>
+        <v>-2.331664454093446</v>
       </c>
       <c r="G27" t="n">
-        <v>1.633351099208717</v>
+        <v>1.631923463865697</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7876652542602974</v>
       </c>
       <c r="E28" t="n">
-        <v>6.721114491734661</v>
+        <v>6.610719086643115</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.34236621009917</v>
+        <v>-2.277004279077598</v>
       </c>
       <c r="G28" t="n">
-        <v>1.573993264125346</v>
+        <v>1.58756288297008</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7862999849226365</v>
       </c>
       <c r="E29" t="n">
-        <v>6.558316842056773</v>
+        <v>6.465465454091246</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.26028268694246</v>
+        <v>-2.192561301258059</v>
       </c>
       <c r="G29" t="n">
-        <v>1.521008632464123</v>
+        <v>1.541173391427106</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7771397157386757</v>
       </c>
       <c r="E30" t="n">
-        <v>6.368535782582428</v>
+        <v>6.298068520540918</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.212635554121567</v>
+        <v>-2.151432968628033</v>
       </c>
       <c r="G30" t="n">
-        <v>1.453281737712797</v>
+        <v>1.47151045315658</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7617532655322119</v>
       </c>
       <c r="E31" t="n">
-        <v>6.082649837618827</v>
+        <v>6.030586007143564</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.019126430358421</v>
+        <v>-1.984268989907657</v>
       </c>
       <c r="G31" t="n">
-        <v>1.373757569647322</v>
+        <v>1.392241276188756</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7414140578085731</v>
       </c>
       <c r="E32" t="n">
-        <v>5.817512612712211</v>
+        <v>5.78449913566205</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.89139399165531</v>
+        <v>-1.866906189175674</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28696300726056</v>
+        <v>1.316537252530678</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.716851811682042</v>
       </c>
       <c r="E33" t="n">
-        <v>5.454435196020903</v>
+        <v>5.441551849513057</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.821494163507028</v>
+        <v>-1.80518339036255</v>
       </c>
       <c r="G33" t="n">
-        <v>1.20737273039199</v>
+        <v>1.240375189308302</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6892598225802357</v>
       </c>
       <c r="E34" t="n">
-        <v>5.141682318675819</v>
+        <v>5.150282759154607</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.741145996431553</v>
+        <v>-1.724144228892823</v>
       </c>
       <c r="G34" t="n">
-        <v>1.089009640508421</v>
+        <v>1.127423577163765</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6596782425897351</v>
       </c>
       <c r="E35" t="n">
-        <v>4.733022882250765</v>
+        <v>4.757261202699675</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.68973617090119</v>
+        <v>-1.677237672068502</v>
       </c>
       <c r="G35" t="n">
-        <v>1.015820899406182</v>
+        <v>1.053811424917895</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6284338213772995</v>
       </c>
       <c r="E36" t="n">
-        <v>4.265844562933993</v>
+        <v>4.30070436441344</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.605634755230973</v>
+        <v>-1.603850604556979</v>
       </c>
       <c r="G36" t="n">
-        <v>0.947591892555161</v>
+        <v>0.9911213913547314</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5955449357258897</v>
       </c>
       <c r="E37" t="n">
-        <v>3.888122472338103</v>
+        <v>3.941371539211705</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.570805647124392</v>
+        <v>-1.56931505101652</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8695614686358006</v>
+        <v>0.9106229054531717</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5620335138092796</v>
       </c>
       <c r="E38" t="n">
-        <v>3.53758841402444</v>
+        <v>3.607125430765262</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.479987891863585</v>
+        <v>-1.4791835680926</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7737414806074999</v>
+        <v>0.8193581287619152</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5286229501771433</v>
       </c>
       <c r="E39" t="n">
-        <v>3.105285636378327</v>
+        <v>3.188108948522048</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.453598674285418</v>
+        <v>-1.455297827926862</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7113457886200194</v>
+        <v>0.7524686121831212</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4960261734313032</v>
       </c>
       <c r="E40" t="n">
-        <v>2.69037891806083</v>
+        <v>2.787664317891061</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.44750171121906</v>
+        <v>-1.451694898158205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6394776495605513</v>
+        <v>0.6824798519544861</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4641253218307431</v>
       </c>
       <c r="E41" t="n">
-        <v>2.342084688956778</v>
+        <v>2.438164390140093</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.412490016894408</v>
+        <v>-1.421454842799776</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5866220874672742</v>
+        <v>0.6310283149174092</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4336565076932574</v>
       </c>
       <c r="E42" t="n">
-        <v>1.967479156221063</v>
+        <v>2.067553717934239</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.380683025500725</v>
+        <v>-1.390707166274728</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5225233067905463</v>
+        <v>0.5652044092837357</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4047992276218629</v>
       </c>
       <c r="E43" t="n">
-        <v>1.728720917768325</v>
+        <v>1.825371987892673</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.359385759779966</v>
+        <v>-1.36444937929319</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4464950351934805</v>
+        <v>0.4905959029340832</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3774614749309805</v>
       </c>
       <c r="E44" t="n">
-        <v>1.517271911070155</v>
+        <v>1.603147246290078</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.357909329844186</v>
+        <v>-1.363637185426599</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3807356643437804</v>
+        <v>0.4191165465975763</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3512389691634619</v>
       </c>
       <c r="E45" t="n">
-        <v>1.295239199800359</v>
+        <v>1.383623521499635</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.286766026590077</v>
+        <v>-1.293028261664171</v>
       </c>
       <c r="G45" t="n">
-        <v>0.320770257879588</v>
+        <v>0.3645138232796555</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3260883674376073</v>
       </c>
       <c r="E46" t="n">
-        <v>1.071416828789644</v>
+        <v>1.160566123781872</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.226705391969046</v>
+        <v>-1.230862376468401</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2854288065490237</v>
+        <v>0.3233579453150064</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3022606016878176</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9445052410582903</v>
+        <v>1.032828176011836</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.172850327733743</v>
+        <v>-1.182018202105758</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2088937007948991</v>
+        <v>0.2496686661321934</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.279631751368499</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7831651330867272</v>
+        <v>0.8567158985868657</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.099025682906498</v>
+        <v>-1.107419926880394</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1528963965355058</v>
+        <v>0.1849749062276138</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2580635321328739</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6173862911930962</v>
+        <v>0.6947745153109658</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.041664491078497</v>
+        <v>-1.04425768758084</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1056899890685769</v>
+        <v>0.1394385330483849</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2375861687398223</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5391654109600584</v>
+        <v>0.6138494702275336</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.98689649575284</v>
+        <v>-0.9843615379579852</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09345199040046401</v>
+        <v>0.1186237041883046</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2182183404526054</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4202844687855814</v>
+        <v>0.4933504363963593</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9684332514599829</v>
+        <v>-0.9643596899740567</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08648223373134456</v>
+        <v>0.1043992933891103</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1997333804027683</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2879362190092557</v>
+        <v>0.3417676729577392</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9722848762498056</v>
+        <v>-0.9595376823959521</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02772882199055379</v>
+        <v>0.05024831355900273</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1818458279743901</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2197355445024182</v>
+        <v>0.2807335075101837</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9344375864781307</v>
+        <v>-0.9372598027626228</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0362253772073349</v>
+        <v>0.05305636367140316</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.164600215202014</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1252361585168888</v>
+        <v>0.1631070585753834</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9064043059277654</v>
+        <v>-0.9000492037255139</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.001651818927644846</v>
+        <v>0.01273314182192214</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1481891878010921</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08076224824453787</v>
+        <v>0.1021185396823456</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9214015601155183</v>
+        <v>-0.9090439359941866</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01533791518735433</v>
+        <v>0.0004841250199601871</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.132597719305133</v>
       </c>
       <c r="E56" t="n">
-        <v>0.005437563194693452</v>
+        <v>0.02127376957409967</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9343966619809768</v>
+        <v>-0.9167385284686651</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04729207736887959</v>
+        <v>-0.03507139291110105</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1178315373464719</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08862424547511435</v>
+        <v>-0.07765175818052726</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9669214060939736</v>
+        <v>-0.9433614878863449</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08428782279593096</v>
+        <v>-0.07439511261855614</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1043493411610404</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1252154679879914</v>
+        <v>-0.1188768929865136</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9681247437122079</v>
+        <v>-0.9405652429173542</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1094453704116798</v>
+        <v>-0.101112513183514</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.09222976275246064</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1961266034217087</v>
+        <v>-0.1950232160176769</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9737644542238283</v>
+        <v>-0.9502407384559896</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1202636038323795</v>
+        <v>-0.1167299309050594</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.08160766286041171</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2705430794385627</v>
+        <v>-0.276826563770795</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.015169814219204</v>
+        <v>-0.9827017347945737</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.127793711308682</v>
+        <v>-0.1264762573041533</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0722818128552834</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3431887839439533</v>
+        <v>-0.357153481588133</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9957424832145498</v>
+        <v>-0.9643833002608763</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1649799130494107</v>
+        <v>-0.164259012291855</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.06408390357431779</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4701743505740076</v>
+        <v>-0.4799316951069506</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.035454198635406</v>
+        <v>-0.9958164621132509</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1873042262468184</v>
+        <v>-0.1846299677597285</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.05692963683402734</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5260473073228181</v>
+        <v>-0.5281706591174528</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.069185428404879</v>
+        <v>-1.018210032151996</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2219326469154335</v>
+        <v>-0.2186445209710364</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.05067767402283414</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6666811937536706</v>
+        <v>-0.671792033840534</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.111477748175107</v>
+        <v>-1.057407830329747</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2725609719520701</v>
+        <v>-0.2663530405376602</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.0451411070093125</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8300612305064394</v>
+        <v>-0.8364848025404675</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.179764206724056</v>
+        <v>-1.120601550011727</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3367809521011382</v>
+        <v>-0.327289616799695</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.04048640962701374</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9420778752929242</v>
+        <v>-0.9450842518146085</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.208661623772015</v>
+        <v>-1.147759675930649</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3687713167224534</v>
+        <v>-0.3624469078930672</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.03675534442950653</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.035056758807277</v>
+        <v>-1.030386644074378</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.272154407087042</v>
+        <v>-1.204881616852212</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4341230166197366</v>
+        <v>-0.4165994617422961</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.03487764735098071</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.14440937623096</v>
+        <v>-1.125718686175075</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.340089859371941</v>
+        <v>-1.264291394566585</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.448761394447833</v>
+        <v>-0.4439448959366529</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.0354389449198304</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.314347563652629</v>
+        <v>-1.280658045389869</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.398549716546609</v>
+        <v>-1.319811771032224</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4836920267877379</v>
+        <v>-0.4762547864395921</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.03944615788693185</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.374612820759429</v>
+        <v>-1.336420820800189</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.491000516645765</v>
+        <v>-1.403204091088295</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.52467004059168</v>
+        <v>-0.5124336159426884</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.04845967080986529</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.436625239090872</v>
+        <v>-1.393970107913185</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.534234886860092</v>
+        <v>-1.435433706616048</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5849030303064934</v>
+        <v>-0.5664854325681541</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.06357982552934947</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.512490599708884</v>
+        <v>-1.468883186962809</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.579376968249435</v>
+        <v>-1.48373248335316</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.580100697967405</v>
+        <v>-0.5536729169207665</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.08573598122368693</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.57469977043049</v>
+        <v>-1.509238676204276</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.583784221789077</v>
+        <v>-1.489653156277932</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6116172828332087</v>
+        <v>-0.5811395505874635</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1148376583973358</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.627575794772344</v>
+        <v>-1.555898112026553</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.615211087564967</v>
+        <v>-1.524304400223806</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6164542435929657</v>
+        <v>-0.5875662706597342</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1511167132464679</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.630808043037935</v>
+        <v>-1.549616201713442</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.602178996250158</v>
+        <v>-1.514827231094455</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6366190025559488</v>
+        <v>-0.6078994496686965</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1943334674223207</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.543272904654601</v>
+        <v>-1.466131801538775</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.672783984964782</v>
+        <v>-1.577832068481879</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.619701445040209</v>
+        <v>-0.5901209036936051</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2434076351066402</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.480312926812134</v>
+        <v>-1.418221807524625</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.68044158798991</v>
+        <v>-1.587936484231068</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5942306676193213</v>
+        <v>-0.5650341869383149</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.296778351034611</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.308416659603568</v>
+        <v>-1.246015458549163</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.622569626957047</v>
+        <v>-1.535316237996426</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5537343036664972</v>
+        <v>-0.5261685067951583</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3531639796387896</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.183796843712828</v>
+        <v>-1.126253852676318</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.592215455212324</v>
+        <v>-1.513017896114519</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5645053165135578</v>
+        <v>-0.5280148312244439</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.4112807409999878</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9989888976522325</v>
+        <v>-0.9480646570207913</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.552878356342338</v>
+        <v>-1.479459808448389</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5515275288584336</v>
+        <v>-0.5154620287320709</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.4693080769761854</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8529010349660731</v>
+        <v>-0.8029550472185203</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.512753460902141</v>
+        <v>-1.447403335023979</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5167417062776885</v>
+        <v>-0.4841437702755512</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.5255598594313549</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6334961486192883</v>
+        <v>-0.599322619476729</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.501930505424077</v>
+        <v>-1.441355953559942</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4653468339289784</v>
+        <v>-0.4386089711154436</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.5790106585714522</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.422069178188816</v>
+        <v>-0.3938092388849834</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.396293360136224</v>
+        <v>-1.355117019922998</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3803214690345578</v>
+        <v>-0.3551670694570515</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.6285072270878331</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2259825981145402</v>
+        <v>-0.205581736283362</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.357314350616334</v>
+        <v>-1.332413368117357</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3570763546511893</v>
+        <v>-0.3334503276404659</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.6729197409238779</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.03101671965463048</v>
+        <v>-0.01362695640250048</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.229706259423805</v>
+        <v>-1.211302827857558</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3328270160684308</v>
+        <v>-0.3037265505538237</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.7110755472504112</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2370529028749684</v>
+        <v>0.2472179183603282</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.118527779819413</v>
+        <v>-1.109034870498849</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2697985683941874</v>
+        <v>-0.2374650676044287</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.7422161978455822</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4737869527377131</v>
+        <v>0.4788127957920262</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9824868811845161</v>
+        <v>-0.9820642570504469</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2033088526722038</v>
+        <v>-0.1759224939806931</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.7646708697157244</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6440580452035363</v>
+        <v>0.6518242555480339</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8314565984574724</v>
+        <v>-0.8334532417128424</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1804430768970687</v>
+        <v>-0.1512182638718788</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.7760062096532642</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8304895919877536</v>
+        <v>0.8329765421994088</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7176164525189609</v>
+        <v>-0.7154222698638677</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1194136335068771</v>
+        <v>-0.09691460418700508</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7730777094392426</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9703364688579559</v>
+        <v>0.9690630873888236</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5247723518345645</v>
+        <v>-0.5373818190153044</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1017373987746704</v>
+        <v>-0.07854422702230475</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.7535320476682621</v>
       </c>
       <c r="E91" t="n">
-        <v>1.093180791179868</v>
+        <v>1.08789523497054</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3274863691898576</v>
+        <v>-0.3392222557582755</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1230637838491734</v>
+        <v>-0.09747495499418812</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.7159550975220736</v>
       </c>
       <c r="E92" t="n">
-        <v>1.156508302487159</v>
+        <v>1.148210073679661</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1897061794259232</v>
+        <v>-0.2011319842274449</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08471595599692475</v>
+        <v>-0.05934748981892156</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.661558526231766</v>
       </c>
       <c r="E93" t="n">
-        <v>1.185745707665319</v>
+        <v>1.183571987258803</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08849045384980379</v>
+        <v>-0.1006796579251563</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08136959134503947</v>
+        <v>-0.05805207208209109</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.5938717273363815</v>
       </c>
       <c r="E94" t="n">
-        <v>1.1753398672544</v>
+        <v>1.165115039042431</v>
       </c>
       <c r="F94" t="n">
-        <v>0.06608609395753025</v>
+        <v>0.04832958425013719</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04283917727471994</v>
+        <v>-0.02340633720314165</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.5192696195104788</v>
       </c>
       <c r="E95" t="n">
-        <v>1.189986115178103</v>
+        <v>1.175632634810962</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1489723668661032</v>
+        <v>0.1271832201699377</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.077069371105646</v>
+        <v>-0.05762236486197601</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.4432075266457868</v>
       </c>
       <c r="E96" t="n">
-        <v>1.109500221429514</v>
+        <v>1.096324107365106</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2331461874159</v>
+        <v>0.2049429128004343</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1013659302620434</v>
+        <v>-0.0875885408932985</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.3710355255844316</v>
       </c>
       <c r="E97" t="n">
-        <v>1.061317922107378</v>
+        <v>1.045138579559528</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2823515991668809</v>
+        <v>0.2518581267299226</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06810218417159598</v>
+        <v>-0.05203459698135856</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.3044977508319371</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9403089060809027</v>
+        <v>0.9299975068172619</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2621427676685013</v>
+        <v>0.2335680245404086</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.124401700102279</v>
+        <v>-0.1102056216472681</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.2461813399339353</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9103128236862754</v>
+        <v>0.8949236387373186</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2381185138200889</v>
+        <v>0.2170817482639052</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1102906186798183</v>
+        <v>-0.09727190652754032</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1919375645192937</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8514350644349019</v>
+        <v>0.8403287855150042</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2318491956599483</v>
+        <v>0.2079650295133317</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1110241115903444</v>
+        <v>-0.09937637009271935</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.142800179536976</v>
       </c>
       <c r="E101" t="n">
-        <v>0.793748837658353</v>
+        <v>0.7835019731786855</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2042896948650945</v>
+        <v>0.1879435062903869</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0967493321792685</v>
+        <v>-0.08624275454458641</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.09124413770413707</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7834091060505288</v>
+        <v>0.7710373157571054</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1719798043621553</v>
+        <v>0.1605949240577874</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07957520954675669</v>
+        <v>-0.07029794084581044</v>
       </c>
     </row>
   </sheetData>
